--- a/Prophecies/Raw Info/Creature Stats.xlsx
+++ b/Prophecies/Raw Info/Creature Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\dev\Project GW\Prophecies\Raw Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\dev\Project-GW\Prophecies\Raw Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B89436-1D36-4B3D-87FE-5EE9C1639DF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B041728-264E-4BA2-995F-C439D96B7570}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="19285" windowHeight="12120" xr2:uid="{0B77E685-D0CB-4A77-B79C-187939F0607C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B77E685-D0CB-4A77-B79C-187939F0607C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="557">
   <si>
     <t>Creature Type</t>
   </si>
@@ -1405,6 +1405,303 @@
   </si>
   <si>
     <t>15 Blood Magic, 0 Curses</t>
+  </si>
+  <si>
+    <t>Grawl Invader</t>
+  </si>
+  <si>
+    <t>Grawl</t>
+  </si>
+  <si>
+    <t>Grawl Longspear</t>
+  </si>
+  <si>
+    <t>Grawl Shaman</t>
+  </si>
+  <si>
+    <t>Grawl Heretic</t>
+  </si>
+  <si>
+    <t>Grawl Petitioner</t>
+  </si>
+  <si>
+    <t>Grawl Ulodyte</t>
+  </si>
+  <si>
+    <t>0 Healing Prayers</t>
+  </si>
+  <si>
+    <t>Grawl High Priest</t>
+  </si>
+  <si>
+    <t>Grawl (Shiverpeaks)</t>
+  </si>
+  <si>
+    <t>Mighty Grawl</t>
+  </si>
+  <si>
+    <t>Grawl Crone</t>
+  </si>
+  <si>
+    <t>Barbed Grawl</t>
+  </si>
+  <si>
+    <t>13 Blood Magic, 15 Curses</t>
+  </si>
+  <si>
+    <t>Grawl Champion</t>
+  </si>
+  <si>
+    <t>Grawl Dark Priest</t>
+  </si>
+  <si>
+    <t>11 Restoration Magic</t>
+  </si>
+  <si>
+    <t>Grawl Demagogue</t>
+  </si>
+  <si>
+    <t>Desert Griffon</t>
+  </si>
+  <si>
+    <t>Griffon</t>
+  </si>
+  <si>
+    <t>Blessed Griffon</t>
+  </si>
+  <si>
+    <t>Hyrda (Ascalon)</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>11 Fire Magic</t>
+  </si>
+  <si>
+    <t>Hydra (Crystal Desert)</t>
+  </si>
+  <si>
+    <t>14 Energy Storage, 16 Fire Magic</t>
+  </si>
+  <si>
+    <t>Mahgo Hydra</t>
+  </si>
+  <si>
+    <t>12 Energy Storage, 15 Fire Magic</t>
+  </si>
+  <si>
+    <t>Fire Imp</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>Inferno Imp</t>
+  </si>
+  <si>
+    <t>12 Fire Magic</t>
+  </si>
+  <si>
+    <t>Ice Imp</t>
+  </si>
+  <si>
+    <t>Lava Imp</t>
+  </si>
+  <si>
+    <t>Forge Imp</t>
+  </si>
+  <si>
+    <t>15 Channeling magic, 15 Communing</t>
+  </si>
+  <si>
+    <t>Jade Construct</t>
+  </si>
+  <si>
+    <t>Jade Bow</t>
+  </si>
+  <si>
+    <t>Mursaat</t>
+  </si>
+  <si>
+    <t>0 Expertise</t>
+  </si>
+  <si>
+    <t>Jade Armor</t>
+  </si>
+  <si>
+    <t>Ether Seal</t>
+  </si>
+  <si>
+    <t>15 Air Magic, 15 Energy Storage</t>
+  </si>
+  <si>
+    <t>Jade Cloak</t>
+  </si>
+  <si>
+    <t>Minotaur (Shiverpeaks)</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>Forest Minotaur</t>
+  </si>
+  <si>
+    <t>Minotaur (Crystal Desert)</t>
+  </si>
+  <si>
+    <t>Hunting Minotaur</t>
+  </si>
+  <si>
+    <t>Berserking Minotaur</t>
+  </si>
+  <si>
+    <t>Berserking Aurochs</t>
+  </si>
+  <si>
+    <t>Berserking Wendigo</t>
+  </si>
+  <si>
+    <t>13 Deadly Arts</t>
+  </si>
+  <si>
+    <t>Berserking Bison</t>
+  </si>
+  <si>
+    <t>11 Mysticism, 14 Wind Prayers</t>
+  </si>
+  <si>
+    <t>Mursaat Monk</t>
+  </si>
+  <si>
+    <t>Mursaat Necromancer</t>
+  </si>
+  <si>
+    <t>16 Blood Magic, 12 Curses</t>
+  </si>
+  <si>
+    <t>Mursaat Mesmer</t>
+  </si>
+  <si>
+    <t>Mursaat Elementalist</t>
+  </si>
+  <si>
+    <t>Abyssal</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Shadow Warrior</t>
+  </si>
+  <si>
+    <t>Shadow Ranger</t>
+  </si>
+  <si>
+    <t>Shadow Mok</t>
+  </si>
+  <si>
+    <t>15 Healing Prayers/15 Smiting Prayers</t>
+  </si>
+  <si>
+    <t>Shadow Beast</t>
+  </si>
+  <si>
+    <t>16 Curses, 15 Soul Reaping, 0 Blood Magic</t>
+  </si>
+  <si>
+    <t>Shadow Mesmer</t>
+  </si>
+  <si>
+    <t>Shadow Elemental</t>
+  </si>
+  <si>
+    <t>Bladed Aatxe</t>
+  </si>
+  <si>
+    <t>Grasping Darkness</t>
+  </si>
+  <si>
+    <t>17 Tactics</t>
+  </si>
+  <si>
+    <t>Dying Nightmare</t>
+  </si>
+  <si>
+    <t>12 Blood Magic</t>
+  </si>
+  <si>
+    <t>Charged Blackness</t>
+  </si>
+  <si>
+    <t>16 Air Magic</t>
+  </si>
+  <si>
+    <t>Coldfire Night</t>
+  </si>
+  <si>
+    <t>14 Energy Storage, 16 Water Magic</t>
+  </si>
+  <si>
+    <t>Stalking Night</t>
+  </si>
+  <si>
+    <t>14 Earth Magic</t>
+  </si>
+  <si>
+    <t>Crypt Fiend</t>
+  </si>
+  <si>
+    <t>Tomb Nightmare</t>
+  </si>
+  <si>
+    <t>Nightmare (Kryta)</t>
+  </si>
+  <si>
+    <t>8 Blood Magic, 13 Death Magic</t>
+  </si>
+  <si>
+    <t>Fog Nightmare</t>
+  </si>
+  <si>
+    <t>11 Blood Magic, 15 Death Magic</t>
+  </si>
+  <si>
+    <t>Ravager</t>
+  </si>
+  <si>
+    <t>Azure Shadow</t>
+  </si>
+  <si>
+    <t>11 Smiting Prayers</t>
+  </si>
+  <si>
+    <t>Nightmare (Ring of Fire Islands)</t>
+  </si>
+  <si>
+    <t>14 Blood Magic, 16 Death Magic</t>
+  </si>
+  <si>
+    <t>Tears of Dwayna</t>
+  </si>
+  <si>
+    <t>Nightmare Horde</t>
+  </si>
+  <si>
+    <t>Deep Nightmare</t>
+  </si>
+  <si>
+    <t>15 Deadly Arts</t>
+  </si>
+  <si>
+    <t>Sapping Nightmare</t>
+  </si>
+  <si>
+    <t>15 Domination Magic, 15 Inspiration Magic</t>
+  </si>
+  <si>
+    <t>Freezing Nightmare</t>
   </si>
 </sst>
 </file>
@@ -1765,22 +2062,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37894AC8-88C9-4CFF-9437-977CFBCDB67B}">
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:N337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <pane xSplit="1423" ySplit="429" topLeftCell="A219" activePane="bottomRight"/>
+      <pane xSplit="1425" ySplit="435" topLeftCell="A216" activePane="topRight"/>
       <selection activeCell="V125" sqref="V125"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="A272" sqref="A272"/>
+      <selection pane="bottomRight" activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="13.3828125" customWidth="1"/>
+    <col min="1" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +2121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1868,7 +2165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1909,7 +2206,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +2247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1991,7 +2288,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2032,7 +2329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2073,7 +2370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2117,7 +2414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2158,7 +2455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2202,7 +2499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2243,7 +2540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2284,7 +2581,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +2622,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2366,7 +2663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2407,7 +2704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2448,7 +2745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2489,7 +2786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2533,7 +2830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2577,7 +2874,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2621,7 +2918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2665,7 +2962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2709,7 +3006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2753,7 +3050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2797,7 +3094,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2841,7 +3138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2882,7 +3179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2926,7 +3223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2970,7 +3267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -3014,7 +3311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3055,7 +3352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3099,7 +3396,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -3143,7 +3440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -3187,7 +3484,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3228,7 +3525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -3269,7 +3566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -3310,7 +3607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -3351,7 +3648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -3392,7 +3689,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -3433,7 +3730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -3474,7 +3771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -3515,7 +3812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -3556,7 +3853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -3597,7 +3894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -3635,7 +3932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -3676,7 +3973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -3717,7 +4014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -3758,7 +4055,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -3799,7 +4096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -3837,7 +4134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -3878,7 +4175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3919,7 +4216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -3960,7 +4257,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -3998,7 +4295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -4036,7 +4333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -4074,7 +4371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -4115,7 +4412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -4156,7 +4453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -4197,7 +4494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -4214,7 +4511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -4252,7 +4549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -4269,7 +4566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -4286,7 +4583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -4324,7 +4621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -4362,7 +4659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -4400,7 +4697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>142</v>
       </c>
@@ -4417,7 +4714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>143</v>
       </c>
@@ -4455,7 +4752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>144</v>
       </c>
@@ -4496,7 +4793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -4537,7 +4834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -4554,7 +4851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -4571,7 +4868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -4612,7 +4909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -4629,7 +4926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -4670,7 +4967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -4708,7 +5005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -4725,7 +5022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>154</v>
       </c>
@@ -4763,7 +5060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -4801,7 +5098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4839,7 +5136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -4880,7 +5177,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -4921,7 +5218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -4962,7 +5259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5003,7 +5300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -5044,7 +5341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -5061,7 +5358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -5078,7 +5375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -5116,7 +5413,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -5154,7 +5451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -5192,7 +5489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -5230,7 +5527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -5268,7 +5565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -5309,7 +5606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -5350,7 +5647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -5391,7 +5688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -5432,7 +5729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -5470,7 +5767,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -5511,7 +5808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -5549,7 +5846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -5587,7 +5884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -5604,7 +5901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -5642,7 +5939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -5662,7 +5959,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -5682,7 +5979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -5723,7 +6020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -5743,7 +6040,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -5763,7 +6060,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -5783,7 +6080,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>209</v>
       </c>
@@ -5800,7 +6097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>210</v>
       </c>
@@ -5811,7 +6108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -5852,7 +6149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>214</v>
       </c>
@@ -5869,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -5886,7 +6183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>216</v>
       </c>
@@ -5924,7 +6221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>217</v>
       </c>
@@ -5965,7 +6262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>219</v>
       </c>
@@ -6006,7 +6303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -6047,7 +6344,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>221</v>
       </c>
@@ -6088,7 +6385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>225</v>
       </c>
@@ -6129,7 +6426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -6170,7 +6467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -6181,7 +6478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -6192,7 +6489,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>231</v>
       </c>
@@ -6227,7 +6524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>232</v>
       </c>
@@ -6268,7 +6565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>236</v>
       </c>
@@ -6306,7 +6603,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>237</v>
       </c>
@@ -6347,7 +6644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>240</v>
       </c>
@@ -6385,7 +6682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -6426,7 +6723,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>243</v>
       </c>
@@ -6467,7 +6764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>245</v>
       </c>
@@ -6508,7 +6805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>248</v>
       </c>
@@ -6546,7 +6843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>250</v>
       </c>
@@ -6584,7 +6881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>251</v>
       </c>
@@ -6598,7 +6895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>252</v>
       </c>
@@ -6636,7 +6933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>253</v>
       </c>
@@ -6674,7 +6971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>236</v>
       </c>
@@ -6712,7 +7009,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -6753,7 +7050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>254</v>
       </c>
@@ -6791,7 +7088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>256</v>
       </c>
@@ -6805,7 +7102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>257</v>
       </c>
@@ -6840,7 +7137,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>259</v>
       </c>
@@ -6875,7 +7172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>260</v>
       </c>
@@ -6913,7 +7210,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>262</v>
       </c>
@@ -6951,7 +7248,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>264</v>
       </c>
@@ -6989,7 +7286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>265</v>
       </c>
@@ -7003,7 +7300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>266</v>
       </c>
@@ -7023,7 +7320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>267</v>
       </c>
@@ -7064,7 +7361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -7102,7 +7399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -7140,7 +7437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -7178,7 +7475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -7216,7 +7513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>275</v>
       </c>
@@ -7251,7 +7548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>276</v>
       </c>
@@ -7289,7 +7586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>278</v>
       </c>
@@ -7327,7 +7624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>279</v>
       </c>
@@ -7365,7 +7662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>280</v>
       </c>
@@ -7406,7 +7703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>283</v>
       </c>
@@ -7447,7 +7744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>285</v>
       </c>
@@ -7488,7 +7785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>287</v>
       </c>
@@ -7526,7 +7823,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>288</v>
       </c>
@@ -7567,7 +7864,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -7608,7 +7905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>290</v>
       </c>
@@ -7649,7 +7946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>292</v>
       </c>
@@ -7690,7 +7987,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>294</v>
       </c>
@@ -7731,7 +8028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>295</v>
       </c>
@@ -7751,7 +8048,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>296</v>
       </c>
@@ -7771,7 +8068,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>298</v>
       </c>
@@ -7812,7 +8109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>300</v>
       </c>
@@ -7850,7 +8147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>301</v>
       </c>
@@ -7867,7 +8164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>302</v>
       </c>
@@ -7905,7 +8202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>303</v>
       </c>
@@ -7946,7 +8243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>305</v>
       </c>
@@ -7960,7 +8257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>306</v>
       </c>
@@ -8001,7 +8298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>307</v>
       </c>
@@ -8042,7 +8339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>309</v>
       </c>
@@ -8080,7 +8377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>311</v>
       </c>
@@ -8118,7 +8415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>312</v>
       </c>
@@ -8159,7 +8456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>314</v>
       </c>
@@ -8200,7 +8497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>316</v>
       </c>
@@ -8217,7 +8514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>319</v>
       </c>
@@ -8231,7 +8528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>320</v>
       </c>
@@ -8272,7 +8569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>322</v>
       </c>
@@ -8310,7 +8607,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>323</v>
       </c>
@@ -8348,7 +8645,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>324</v>
       </c>
@@ -8389,7 +8686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>325</v>
       </c>
@@ -8427,7 +8724,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>326</v>
       </c>
@@ -8444,7 +8741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>326</v>
       </c>
@@ -8485,7 +8782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>328</v>
       </c>
@@ -8505,7 +8802,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>329</v>
       </c>
@@ -8543,7 +8840,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>330</v>
       </c>
@@ -8584,7 +8881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>332</v>
       </c>
@@ -8601,7 +8898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>333</v>
       </c>
@@ -8642,7 +8939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>335</v>
       </c>
@@ -8680,7 +8977,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>336</v>
       </c>
@@ -8721,7 +9018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>337</v>
       </c>
@@ -8762,7 +9059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>338</v>
       </c>
@@ -8800,7 +9097,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>339</v>
       </c>
@@ -8838,7 +9135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>340</v>
       </c>
@@ -8876,7 +9173,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>341</v>
       </c>
@@ -8917,7 +9214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>343</v>
       </c>
@@ -8958,7 +9255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>344</v>
       </c>
@@ -8996,7 +9293,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>346</v>
       </c>
@@ -9037,7 +9334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>348</v>
       </c>
@@ -9078,7 +9375,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>349</v>
       </c>
@@ -9119,7 +9416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>350</v>
       </c>
@@ -9160,7 +9457,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>353</v>
       </c>
@@ -9198,7 +9495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>354</v>
       </c>
@@ -9239,7 +9536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>356</v>
       </c>
@@ -9277,7 +9574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>357</v>
       </c>
@@ -9318,7 +9615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>359</v>
       </c>
@@ -9359,7 +9656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>361</v>
       </c>
@@ -9400,7 +9697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>363</v>
       </c>
@@ -9441,7 +9738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>365</v>
       </c>
@@ -9479,7 +9776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>366</v>
       </c>
@@ -9517,7 +9814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>367</v>
       </c>
@@ -9534,7 +9831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>368</v>
       </c>
@@ -9554,7 +9851,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>371</v>
       </c>
@@ -9592,7 +9889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>373</v>
       </c>
@@ -9633,7 +9930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>375</v>
       </c>
@@ -9671,7 +9968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>376</v>
       </c>
@@ -9691,7 +9988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>377</v>
       </c>
@@ -9732,7 +10029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>378</v>
       </c>
@@ -9770,7 +10067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>380</v>
       </c>
@@ -9811,7 +10108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>382</v>
       </c>
@@ -9852,7 +10149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>384</v>
       </c>
@@ -9890,7 +10187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>385</v>
       </c>
@@ -9931,7 +10228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>387</v>
       </c>
@@ -9972,7 +10269,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>389</v>
       </c>
@@ -9989,7 +10286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>391</v>
       </c>
@@ -10006,7 +10303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>393</v>
       </c>
@@ -10023,7 +10320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>395</v>
       </c>
@@ -10040,7 +10337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>397</v>
       </c>
@@ -10057,7 +10354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>399</v>
       </c>
@@ -10074,7 +10371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>401</v>
       </c>
@@ -10115,7 +10412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>404</v>
       </c>
@@ -10153,7 +10450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>405</v>
       </c>
@@ -10191,7 +10488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>406</v>
       </c>
@@ -10232,7 +10529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>408</v>
       </c>
@@ -10273,7 +10570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>410</v>
       </c>
@@ -10314,7 +10611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>413</v>
       </c>
@@ -10355,7 +10652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>415</v>
       </c>
@@ -10393,7 +10690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>416</v>
       </c>
@@ -10434,7 +10731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>418</v>
       </c>
@@ -10451,7 +10748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>419</v>
       </c>
@@ -10492,7 +10789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>421</v>
       </c>
@@ -10530,7 +10827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>423</v>
       </c>
@@ -10571,7 +10868,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>424</v>
       </c>
@@ -10612,7 +10909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>425</v>
       </c>
@@ -10650,7 +10947,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>426</v>
       </c>
@@ -10691,7 +10988,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>427</v>
       </c>
@@ -10729,7 +11026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>429</v>
       </c>
@@ -10746,7 +11043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>430</v>
       </c>
@@ -10763,7 +11060,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>430</v>
       </c>
@@ -10780,7 +11077,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>430</v>
       </c>
@@ -10797,7 +11094,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>432</v>
       </c>
@@ -10835,7 +11132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>433</v>
       </c>
@@ -10876,7 +11173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>432</v>
       </c>
@@ -10914,7 +11211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>435</v>
       </c>
@@ -10955,7 +11252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>436</v>
       </c>
@@ -10993,7 +11290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>437</v>
       </c>
@@ -11031,7 +11328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>438</v>
       </c>
@@ -11072,7 +11369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>440</v>
       </c>
@@ -11092,7 +11389,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>442</v>
       </c>
@@ -11133,7 +11430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>442</v>
       </c>
@@ -11174,7 +11471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>445</v>
       </c>
@@ -11212,7 +11509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>447</v>
       </c>
@@ -11253,7 +11550,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>449</v>
       </c>
@@ -11291,7 +11588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>450</v>
       </c>
@@ -11311,7 +11608,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>452</v>
       </c>
@@ -11328,7 +11625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>453</v>
       </c>
@@ -11369,7 +11666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>454</v>
       </c>
@@ -11410,7 +11707,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>456</v>
       </c>
@@ -11449,6 +11746,2301 @@
       </c>
       <c r="M271">
         <v>71</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>458</v>
+      </c>
+      <c r="B272" t="s">
+        <v>459</v>
+      </c>
+      <c r="D272" t="s">
+        <v>32</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>460</v>
+      </c>
+      <c r="B273" t="s">
+        <v>459</v>
+      </c>
+      <c r="D273" t="s">
+        <v>32</v>
+      </c>
+      <c r="E273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>461</v>
+      </c>
+      <c r="B274" t="s">
+        <v>459</v>
+      </c>
+      <c r="D274" t="s">
+        <v>62</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>459</v>
+      </c>
+      <c r="B275" t="s">
+        <v>459</v>
+      </c>
+      <c r="C275" t="s">
+        <v>77</v>
+      </c>
+      <c r="D275" t="s">
+        <v>78</v>
+      </c>
+      <c r="E275">
+        <v>4</v>
+      </c>
+      <c r="G275">
+        <v>54</v>
+      </c>
+      <c r="H275">
+        <v>54</v>
+      </c>
+      <c r="I275">
+        <v>54</v>
+      </c>
+      <c r="J275">
+        <v>34</v>
+      </c>
+      <c r="K275">
+        <v>34</v>
+      </c>
+      <c r="L275">
+        <v>34</v>
+      </c>
+      <c r="M275">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>462</v>
+      </c>
+      <c r="B276" t="s">
+        <v>459</v>
+      </c>
+      <c r="D276" t="s">
+        <v>78</v>
+      </c>
+      <c r="E276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>463</v>
+      </c>
+      <c r="B277" t="s">
+        <v>459</v>
+      </c>
+      <c r="D277" t="s">
+        <v>78</v>
+      </c>
+      <c r="E277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>464</v>
+      </c>
+      <c r="B278" t="s">
+        <v>459</v>
+      </c>
+      <c r="C278" t="s">
+        <v>77</v>
+      </c>
+      <c r="D278" t="s">
+        <v>62</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+      <c r="F278" t="s">
+        <v>465</v>
+      </c>
+      <c r="G278">
+        <v>15</v>
+      </c>
+      <c r="H278">
+        <v>15</v>
+      </c>
+      <c r="I278">
+        <v>15</v>
+      </c>
+      <c r="J278">
+        <v>15</v>
+      </c>
+      <c r="K278">
+        <v>15</v>
+      </c>
+      <c r="L278">
+        <v>15</v>
+      </c>
+      <c r="M278">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>466</v>
+      </c>
+      <c r="B279" t="s">
+        <v>459</v>
+      </c>
+      <c r="C279" t="s">
+        <v>77</v>
+      </c>
+      <c r="D279" t="s">
+        <v>62</v>
+      </c>
+      <c r="E279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>463</v>
+      </c>
+      <c r="B280" t="s">
+        <v>459</v>
+      </c>
+      <c r="D280" t="s">
+        <v>62</v>
+      </c>
+      <c r="E280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>467</v>
+      </c>
+      <c r="B281" t="s">
+        <v>459</v>
+      </c>
+      <c r="C281" t="s">
+        <v>96</v>
+      </c>
+      <c r="D281" t="s">
+        <v>78</v>
+      </c>
+      <c r="E281">
+        <v>22</v>
+      </c>
+      <c r="G281">
+        <v>106</v>
+      </c>
+      <c r="H281">
+        <v>106</v>
+      </c>
+      <c r="I281">
+        <v>106</v>
+      </c>
+      <c r="J281">
+        <v>86</v>
+      </c>
+      <c r="K281">
+        <v>86</v>
+      </c>
+      <c r="L281">
+        <v>86</v>
+      </c>
+      <c r="M281">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>468</v>
+      </c>
+      <c r="B282" t="s">
+        <v>459</v>
+      </c>
+      <c r="C282" t="s">
+        <v>96</v>
+      </c>
+      <c r="D282" t="s">
+        <v>78</v>
+      </c>
+      <c r="E282">
+        <v>24</v>
+      </c>
+      <c r="G282">
+        <v>111</v>
+      </c>
+      <c r="H282">
+        <v>111</v>
+      </c>
+      <c r="I282">
+        <v>111</v>
+      </c>
+      <c r="J282">
+        <v>91</v>
+      </c>
+      <c r="K282">
+        <v>91</v>
+      </c>
+      <c r="L282">
+        <v>91</v>
+      </c>
+      <c r="M282">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>469</v>
+      </c>
+      <c r="B283" t="s">
+        <v>459</v>
+      </c>
+      <c r="C283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D283" t="s">
+        <v>14</v>
+      </c>
+      <c r="E283">
+        <v>22</v>
+      </c>
+      <c r="G283">
+        <v>66</v>
+      </c>
+      <c r="H283">
+        <v>66</v>
+      </c>
+      <c r="I283">
+        <v>66</v>
+      </c>
+      <c r="J283">
+        <v>66</v>
+      </c>
+      <c r="K283">
+        <v>66</v>
+      </c>
+      <c r="L283">
+        <v>66</v>
+      </c>
+      <c r="M283">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>470</v>
+      </c>
+      <c r="B284" t="s">
+        <v>459</v>
+      </c>
+      <c r="C284" t="s">
+        <v>96</v>
+      </c>
+      <c r="D284" t="s">
+        <v>14</v>
+      </c>
+      <c r="E284">
+        <v>24</v>
+      </c>
+      <c r="F284" t="s">
+        <v>471</v>
+      </c>
+      <c r="G284">
+        <v>71</v>
+      </c>
+      <c r="H284">
+        <v>71</v>
+      </c>
+      <c r="I284">
+        <v>71</v>
+      </c>
+      <c r="J284">
+        <v>71</v>
+      </c>
+      <c r="K284">
+        <v>71</v>
+      </c>
+      <c r="L284">
+        <v>71</v>
+      </c>
+      <c r="M284">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>472</v>
+      </c>
+      <c r="B285" t="s">
+        <v>459</v>
+      </c>
+      <c r="C285" t="s">
+        <v>345</v>
+      </c>
+      <c r="D285" t="s">
+        <v>78</v>
+      </c>
+      <c r="E285">
+        <v>24</v>
+      </c>
+      <c r="G285">
+        <v>81</v>
+      </c>
+      <c r="H285">
+        <v>111</v>
+      </c>
+      <c r="I285">
+        <v>111</v>
+      </c>
+      <c r="J285">
+        <v>91</v>
+      </c>
+      <c r="K285">
+        <v>91</v>
+      </c>
+      <c r="L285">
+        <v>91</v>
+      </c>
+      <c r="M285">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>473</v>
+      </c>
+      <c r="B286" t="s">
+        <v>459</v>
+      </c>
+      <c r="C286" t="s">
+        <v>345</v>
+      </c>
+      <c r="D286" t="s">
+        <v>207</v>
+      </c>
+      <c r="E286">
+        <v>24</v>
+      </c>
+      <c r="F286" t="s">
+        <v>474</v>
+      </c>
+      <c r="G286">
+        <v>71</v>
+      </c>
+      <c r="H286">
+        <v>71</v>
+      </c>
+      <c r="I286">
+        <v>71</v>
+      </c>
+      <c r="J286">
+        <v>71</v>
+      </c>
+      <c r="K286">
+        <v>71</v>
+      </c>
+      <c r="L286">
+        <v>71</v>
+      </c>
+      <c r="M286">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>475</v>
+      </c>
+      <c r="B287" t="s">
+        <v>459</v>
+      </c>
+      <c r="C287" t="s">
+        <v>345</v>
+      </c>
+      <c r="D287" t="s">
+        <v>65</v>
+      </c>
+      <c r="E287">
+        <v>24</v>
+      </c>
+      <c r="G287">
+        <v>91</v>
+      </c>
+      <c r="I287">
+        <v>91</v>
+      </c>
+      <c r="J287">
+        <v>91</v>
+      </c>
+      <c r="K287">
+        <v>91</v>
+      </c>
+      <c r="L287">
+        <v>91</v>
+      </c>
+      <c r="M287">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>476</v>
+      </c>
+      <c r="B288" t="s">
+        <v>477</v>
+      </c>
+      <c r="C288" t="s">
+        <v>83</v>
+      </c>
+      <c r="D288" t="s">
+        <v>78</v>
+      </c>
+      <c r="E288">
+        <v>21</v>
+      </c>
+      <c r="G288">
+        <v>103</v>
+      </c>
+      <c r="H288">
+        <v>103</v>
+      </c>
+      <c r="I288">
+        <v>103</v>
+      </c>
+      <c r="J288">
+        <v>83</v>
+      </c>
+      <c r="K288">
+        <v>83</v>
+      </c>
+      <c r="L288">
+        <v>83</v>
+      </c>
+      <c r="M288">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>478</v>
+      </c>
+      <c r="B289" t="s">
+        <v>477</v>
+      </c>
+      <c r="C289" t="s">
+        <v>96</v>
+      </c>
+      <c r="D289" t="s">
+        <v>62</v>
+      </c>
+      <c r="E289">
+        <v>24</v>
+      </c>
+      <c r="F289" t="s">
+        <v>434</v>
+      </c>
+      <c r="G289">
+        <v>81</v>
+      </c>
+      <c r="H289">
+        <v>61</v>
+      </c>
+      <c r="I289">
+        <v>61</v>
+      </c>
+      <c r="J289">
+        <v>81</v>
+      </c>
+      <c r="K289">
+        <v>81</v>
+      </c>
+      <c r="L289">
+        <v>81</v>
+      </c>
+      <c r="M289">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>479</v>
+      </c>
+      <c r="B290" t="s">
+        <v>480</v>
+      </c>
+      <c r="C290" t="s">
+        <v>77</v>
+      </c>
+      <c r="D290" t="s">
+        <v>74</v>
+      </c>
+      <c r="E290">
+        <v>10</v>
+      </c>
+      <c r="F290" t="s">
+        <v>481</v>
+      </c>
+      <c r="G290">
+        <v>42</v>
+      </c>
+      <c r="H290">
+        <v>42</v>
+      </c>
+      <c r="I290">
+        <v>42</v>
+      </c>
+      <c r="J290">
+        <v>56</v>
+      </c>
+      <c r="K290">
+        <v>56</v>
+      </c>
+      <c r="L290">
+        <v>56</v>
+      </c>
+      <c r="M290">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>482</v>
+      </c>
+      <c r="B291" t="s">
+        <v>480</v>
+      </c>
+      <c r="C291" t="s">
+        <v>83</v>
+      </c>
+      <c r="D291" t="s">
+        <v>74</v>
+      </c>
+      <c r="E291">
+        <v>22</v>
+      </c>
+      <c r="F291" t="s">
+        <v>483</v>
+      </c>
+      <c r="G291">
+        <v>56</v>
+      </c>
+      <c r="H291">
+        <v>56</v>
+      </c>
+      <c r="I291">
+        <v>76</v>
+      </c>
+      <c r="J291">
+        <v>76</v>
+      </c>
+      <c r="K291">
+        <v>76</v>
+      </c>
+      <c r="L291">
+        <v>76</v>
+      </c>
+      <c r="M291">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>484</v>
+      </c>
+      <c r="B292" t="s">
+        <v>480</v>
+      </c>
+      <c r="D292" t="s">
+        <v>74</v>
+      </c>
+      <c r="E292">
+        <v>24</v>
+      </c>
+      <c r="F292" t="s">
+        <v>485</v>
+      </c>
+      <c r="G292">
+        <v>71</v>
+      </c>
+      <c r="H292">
+        <v>71</v>
+      </c>
+      <c r="I292">
+        <v>71</v>
+      </c>
+      <c r="J292">
+        <v>91</v>
+      </c>
+      <c r="K292">
+        <v>91</v>
+      </c>
+      <c r="L292">
+        <v>91</v>
+      </c>
+      <c r="M292">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>486</v>
+      </c>
+      <c r="B293" t="s">
+        <v>487</v>
+      </c>
+      <c r="C293" t="s">
+        <v>238</v>
+      </c>
+      <c r="D293" t="s">
+        <v>74</v>
+      </c>
+      <c r="E293">
+        <v>11</v>
+      </c>
+      <c r="G293">
+        <v>29</v>
+      </c>
+      <c r="H293">
+        <v>29</v>
+      </c>
+      <c r="I293">
+        <v>29</v>
+      </c>
+      <c r="J293">
+        <v>29</v>
+      </c>
+      <c r="K293">
+        <v>29</v>
+      </c>
+      <c r="L293">
+        <v>59</v>
+      </c>
+      <c r="M293">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>488</v>
+      </c>
+      <c r="B294" t="s">
+        <v>487</v>
+      </c>
+      <c r="C294" t="s">
+        <v>238</v>
+      </c>
+      <c r="D294" t="s">
+        <v>74</v>
+      </c>
+      <c r="E294">
+        <v>13</v>
+      </c>
+      <c r="F294" t="s">
+        <v>489</v>
+      </c>
+      <c r="G294">
+        <v>34</v>
+      </c>
+      <c r="H294">
+        <v>34</v>
+      </c>
+      <c r="I294">
+        <v>34</v>
+      </c>
+      <c r="J294">
+        <v>34</v>
+      </c>
+      <c r="K294">
+        <v>34</v>
+      </c>
+      <c r="L294">
+        <v>64</v>
+      </c>
+      <c r="M294">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>490</v>
+      </c>
+      <c r="B295" t="s">
+        <v>487</v>
+      </c>
+      <c r="C295" t="s">
+        <v>96</v>
+      </c>
+      <c r="D295" t="s">
+        <v>74</v>
+      </c>
+      <c r="E295">
+        <v>22</v>
+      </c>
+      <c r="F295" t="s">
+        <v>352</v>
+      </c>
+      <c r="G295">
+        <v>60</v>
+      </c>
+      <c r="H295">
+        <v>60</v>
+      </c>
+      <c r="I295">
+        <v>60</v>
+      </c>
+      <c r="J295">
+        <v>100</v>
+      </c>
+      <c r="K295">
+        <v>60</v>
+      </c>
+      <c r="L295">
+        <v>60</v>
+      </c>
+      <c r="M295">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>491</v>
+      </c>
+      <c r="B296" t="s">
+        <v>487</v>
+      </c>
+      <c r="C296" t="s">
+        <v>42</v>
+      </c>
+      <c r="D296" t="s">
+        <v>74</v>
+      </c>
+      <c r="E296">
+        <v>24</v>
+      </c>
+      <c r="G296">
+        <v>71</v>
+      </c>
+      <c r="H296">
+        <v>71</v>
+      </c>
+      <c r="I296">
+        <v>71</v>
+      </c>
+      <c r="J296">
+        <v>71</v>
+      </c>
+      <c r="K296">
+        <v>71</v>
+      </c>
+      <c r="L296">
+        <v>151</v>
+      </c>
+      <c r="M296">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>492</v>
+      </c>
+      <c r="B297" t="s">
+        <v>487</v>
+      </c>
+      <c r="C297" t="s">
+        <v>51</v>
+      </c>
+      <c r="D297" t="s">
+        <v>207</v>
+      </c>
+      <c r="E297">
+        <v>24</v>
+      </c>
+      <c r="F297" t="s">
+        <v>493</v>
+      </c>
+      <c r="G297">
+        <v>71</v>
+      </c>
+      <c r="H297">
+        <v>71</v>
+      </c>
+      <c r="I297">
+        <v>71</v>
+      </c>
+      <c r="J297">
+        <v>71</v>
+      </c>
+      <c r="K297">
+        <v>71</v>
+      </c>
+      <c r="L297">
+        <v>71</v>
+      </c>
+      <c r="M297">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>495</v>
+      </c>
+      <c r="B298" t="s">
+        <v>494</v>
+      </c>
+      <c r="C298" t="s">
+        <v>496</v>
+      </c>
+      <c r="D298" t="s">
+        <v>32</v>
+      </c>
+      <c r="E298">
+        <v>24</v>
+      </c>
+      <c r="F298" t="s">
+        <v>497</v>
+      </c>
+      <c r="G298">
+        <v>111</v>
+      </c>
+      <c r="H298">
+        <v>111</v>
+      </c>
+      <c r="I298">
+        <v>111</v>
+      </c>
+      <c r="J298">
+        <v>91</v>
+      </c>
+      <c r="K298">
+        <v>91</v>
+      </c>
+      <c r="L298">
+        <v>91</v>
+      </c>
+      <c r="M298">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>498</v>
+      </c>
+      <c r="B299" t="s">
+        <v>494</v>
+      </c>
+      <c r="C299" t="s">
+        <v>496</v>
+      </c>
+      <c r="D299" t="s">
+        <v>78</v>
+      </c>
+      <c r="E299">
+        <v>24</v>
+      </c>
+      <c r="G299">
+        <v>111</v>
+      </c>
+      <c r="H299">
+        <v>111</v>
+      </c>
+      <c r="I299">
+        <v>111</v>
+      </c>
+      <c r="J299">
+        <v>91</v>
+      </c>
+      <c r="K299">
+        <v>91</v>
+      </c>
+      <c r="L299">
+        <v>91</v>
+      </c>
+      <c r="M299">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>499</v>
+      </c>
+      <c r="B300" t="s">
+        <v>494</v>
+      </c>
+      <c r="C300" t="s">
+        <v>496</v>
+      </c>
+      <c r="D300" t="s">
+        <v>74</v>
+      </c>
+      <c r="E300">
+        <v>24</v>
+      </c>
+      <c r="F300" t="s">
+        <v>500</v>
+      </c>
+      <c r="G300">
+        <v>71</v>
+      </c>
+      <c r="H300">
+        <v>71</v>
+      </c>
+      <c r="I300">
+        <v>71</v>
+      </c>
+      <c r="J300">
+        <v>71</v>
+      </c>
+      <c r="K300">
+        <v>71</v>
+      </c>
+      <c r="L300">
+        <v>71</v>
+      </c>
+      <c r="M300">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>501</v>
+      </c>
+      <c r="B301" t="s">
+        <v>494</v>
+      </c>
+      <c r="C301" t="s">
+        <v>496</v>
+      </c>
+      <c r="D301" t="s">
+        <v>74</v>
+      </c>
+      <c r="E301">
+        <v>24</v>
+      </c>
+      <c r="G301">
+        <v>140</v>
+      </c>
+      <c r="H301">
+        <v>140</v>
+      </c>
+      <c r="I301">
+        <v>140</v>
+      </c>
+      <c r="J301">
+        <v>140</v>
+      </c>
+      <c r="K301">
+        <v>140</v>
+      </c>
+      <c r="L301">
+        <v>140</v>
+      </c>
+      <c r="M301">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>502</v>
+      </c>
+      <c r="B302" t="s">
+        <v>503</v>
+      </c>
+      <c r="D302" t="s">
+        <v>78</v>
+      </c>
+      <c r="E302">
+        <v>10</v>
+      </c>
+      <c r="G302">
+        <v>72</v>
+      </c>
+      <c r="H302">
+        <v>72</v>
+      </c>
+      <c r="I302">
+        <v>72</v>
+      </c>
+      <c r="J302">
+        <v>52</v>
+      </c>
+      <c r="K302">
+        <v>52</v>
+      </c>
+      <c r="L302">
+        <v>52</v>
+      </c>
+      <c r="M302">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>504</v>
+      </c>
+      <c r="B303" t="s">
+        <v>503</v>
+      </c>
+      <c r="C303" t="s">
+        <v>238</v>
+      </c>
+      <c r="D303" t="s">
+        <v>78</v>
+      </c>
+      <c r="E303">
+        <v>19</v>
+      </c>
+      <c r="G303">
+        <v>97</v>
+      </c>
+      <c r="H303">
+        <v>97</v>
+      </c>
+      <c r="I303">
+        <v>97</v>
+      </c>
+      <c r="J303">
+        <v>77</v>
+      </c>
+      <c r="K303">
+        <v>77</v>
+      </c>
+      <c r="L303">
+        <v>77</v>
+      </c>
+      <c r="M303">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>505</v>
+      </c>
+      <c r="B304" t="s">
+        <v>503</v>
+      </c>
+      <c r="C304" t="s">
+        <v>83</v>
+      </c>
+      <c r="D304" t="s">
+        <v>78</v>
+      </c>
+      <c r="E304">
+        <v>20</v>
+      </c>
+      <c r="G304">
+        <v>100</v>
+      </c>
+      <c r="H304">
+        <v>100</v>
+      </c>
+      <c r="I304">
+        <v>100</v>
+      </c>
+      <c r="J304">
+        <v>80</v>
+      </c>
+      <c r="K304">
+        <v>80</v>
+      </c>
+      <c r="L304">
+        <v>80</v>
+      </c>
+      <c r="M304">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>506</v>
+      </c>
+      <c r="B305" t="s">
+        <v>503</v>
+      </c>
+      <c r="C305" t="s">
+        <v>86</v>
+      </c>
+      <c r="D305" t="s">
+        <v>78</v>
+      </c>
+      <c r="E305">
+        <v>22</v>
+      </c>
+      <c r="F305" t="s">
+        <v>331</v>
+      </c>
+      <c r="G305">
+        <v>106</v>
+      </c>
+      <c r="H305">
+        <v>106</v>
+      </c>
+      <c r="I305">
+        <v>106</v>
+      </c>
+      <c r="J305">
+        <v>86</v>
+      </c>
+      <c r="K305">
+        <v>86</v>
+      </c>
+      <c r="L305">
+        <v>86</v>
+      </c>
+      <c r="M305">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>507</v>
+      </c>
+      <c r="B306" t="s">
+        <v>503</v>
+      </c>
+      <c r="C306" t="s">
+        <v>351</v>
+      </c>
+      <c r="D306" t="s">
+        <v>78</v>
+      </c>
+      <c r="E306">
+        <v>22</v>
+      </c>
+      <c r="F306" t="s">
+        <v>331</v>
+      </c>
+      <c r="G306">
+        <v>116</v>
+      </c>
+      <c r="H306">
+        <v>116</v>
+      </c>
+      <c r="I306">
+        <v>116</v>
+      </c>
+      <c r="J306">
+        <v>96</v>
+      </c>
+      <c r="K306">
+        <v>96</v>
+      </c>
+      <c r="L306">
+        <v>96</v>
+      </c>
+      <c r="M306">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>508</v>
+      </c>
+      <c r="B307" t="s">
+        <v>503</v>
+      </c>
+      <c r="C307" t="s">
+        <v>351</v>
+      </c>
+      <c r="D307" t="s">
+        <v>62</v>
+      </c>
+      <c r="E307">
+        <v>22</v>
+      </c>
+      <c r="G307">
+        <v>76</v>
+      </c>
+      <c r="H307">
+        <v>76</v>
+      </c>
+      <c r="I307">
+        <v>76</v>
+      </c>
+      <c r="J307">
+        <v>76</v>
+      </c>
+      <c r="K307">
+        <v>76</v>
+      </c>
+      <c r="L307">
+        <v>76</v>
+      </c>
+      <c r="M307">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>509</v>
+      </c>
+      <c r="B308" t="s">
+        <v>503</v>
+      </c>
+      <c r="C308" t="s">
+        <v>351</v>
+      </c>
+      <c r="D308" t="s">
+        <v>55</v>
+      </c>
+      <c r="E308">
+        <v>22</v>
+      </c>
+      <c r="F308" t="s">
+        <v>510</v>
+      </c>
+      <c r="G308">
+        <v>86</v>
+      </c>
+      <c r="H308">
+        <v>86</v>
+      </c>
+      <c r="I308">
+        <v>86</v>
+      </c>
+      <c r="J308">
+        <v>86</v>
+      </c>
+      <c r="K308">
+        <v>86</v>
+      </c>
+      <c r="L308">
+        <v>86</v>
+      </c>
+      <c r="M308">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>511</v>
+      </c>
+      <c r="B309" t="s">
+        <v>503</v>
+      </c>
+      <c r="C309" t="s">
+        <v>351</v>
+      </c>
+      <c r="D309" t="s">
+        <v>91</v>
+      </c>
+      <c r="E309">
+        <v>22</v>
+      </c>
+      <c r="F309" t="s">
+        <v>512</v>
+      </c>
+      <c r="G309">
+        <v>86</v>
+      </c>
+      <c r="H309">
+        <v>86</v>
+      </c>
+      <c r="I309">
+        <v>86</v>
+      </c>
+      <c r="J309">
+        <v>86</v>
+      </c>
+      <c r="K309">
+        <v>86</v>
+      </c>
+      <c r="L309">
+        <v>86</v>
+      </c>
+      <c r="M309">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>513</v>
+      </c>
+      <c r="B310" t="s">
+        <v>496</v>
+      </c>
+      <c r="D310" t="s">
+        <v>62</v>
+      </c>
+      <c r="E310">
+        <v>24</v>
+      </c>
+      <c r="G310">
+        <v>71</v>
+      </c>
+      <c r="H310">
+        <v>71</v>
+      </c>
+      <c r="I310">
+        <v>71</v>
+      </c>
+      <c r="J310">
+        <v>71</v>
+      </c>
+      <c r="K310">
+        <v>71</v>
+      </c>
+      <c r="L310">
+        <v>71</v>
+      </c>
+      <c r="M310">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>514</v>
+      </c>
+      <c r="B311" t="s">
+        <v>496</v>
+      </c>
+      <c r="D311" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311">
+        <v>24</v>
+      </c>
+      <c r="F311" t="s">
+        <v>515</v>
+      </c>
+      <c r="G311">
+        <v>71</v>
+      </c>
+      <c r="H311">
+        <v>71</v>
+      </c>
+      <c r="I311">
+        <v>71</v>
+      </c>
+      <c r="J311">
+        <v>71</v>
+      </c>
+      <c r="K311">
+        <v>71</v>
+      </c>
+      <c r="L311">
+        <v>71</v>
+      </c>
+      <c r="M311">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>516</v>
+      </c>
+      <c r="B312" t="s">
+        <v>496</v>
+      </c>
+      <c r="D312" t="s">
+        <v>108</v>
+      </c>
+      <c r="E312">
+        <v>24</v>
+      </c>
+      <c r="F312" t="s">
+        <v>185</v>
+      </c>
+      <c r="G312">
+        <v>71</v>
+      </c>
+      <c r="H312">
+        <v>71</v>
+      </c>
+      <c r="I312">
+        <v>71</v>
+      </c>
+      <c r="J312">
+        <v>71</v>
+      </c>
+      <c r="K312">
+        <v>71</v>
+      </c>
+      <c r="L312">
+        <v>71</v>
+      </c>
+      <c r="M312">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>517</v>
+      </c>
+      <c r="B313" t="s">
+        <v>496</v>
+      </c>
+      <c r="D313" t="s">
+        <v>74</v>
+      </c>
+      <c r="E313">
+        <v>24</v>
+      </c>
+      <c r="F313" t="s">
+        <v>500</v>
+      </c>
+      <c r="G313">
+        <v>71</v>
+      </c>
+      <c r="H313">
+        <v>71</v>
+      </c>
+      <c r="I313">
+        <v>71</v>
+      </c>
+      <c r="J313">
+        <v>71</v>
+      </c>
+      <c r="K313">
+        <v>71</v>
+      </c>
+      <c r="L313">
+        <v>71</v>
+      </c>
+      <c r="M313">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>518</v>
+      </c>
+      <c r="B314" t="s">
+        <v>519</v>
+      </c>
+      <c r="C314" t="s">
+        <v>234</v>
+      </c>
+      <c r="D314" t="s">
+        <v>78</v>
+      </c>
+      <c r="E314">
+        <v>28</v>
+      </c>
+      <c r="G314">
+        <v>112</v>
+      </c>
+      <c r="H314">
+        <v>112</v>
+      </c>
+      <c r="I314">
+        <v>112</v>
+      </c>
+      <c r="J314">
+        <v>112</v>
+      </c>
+      <c r="K314">
+        <v>112</v>
+      </c>
+      <c r="L314">
+        <v>112</v>
+      </c>
+      <c r="M314">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>520</v>
+      </c>
+      <c r="B315" t="s">
+        <v>519</v>
+      </c>
+      <c r="C315" t="s">
+        <v>234</v>
+      </c>
+      <c r="D315" t="s">
+        <v>78</v>
+      </c>
+      <c r="E315">
+        <v>24</v>
+      </c>
+      <c r="G315">
+        <v>128</v>
+      </c>
+      <c r="H315">
+        <v>128</v>
+      </c>
+      <c r="I315">
+        <v>128</v>
+      </c>
+      <c r="J315">
+        <v>108</v>
+      </c>
+      <c r="K315">
+        <v>108</v>
+      </c>
+      <c r="L315">
+        <v>108</v>
+      </c>
+      <c r="M315">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>521</v>
+      </c>
+      <c r="B316" t="s">
+        <v>519</v>
+      </c>
+      <c r="C316" t="s">
+        <v>234</v>
+      </c>
+      <c r="D316" t="s">
+        <v>32</v>
+      </c>
+      <c r="E316">
+        <v>24</v>
+      </c>
+      <c r="G316">
+        <v>70</v>
+      </c>
+      <c r="H316">
+        <v>70</v>
+      </c>
+      <c r="I316">
+        <v>70</v>
+      </c>
+      <c r="J316">
+        <v>100</v>
+      </c>
+      <c r="K316">
+        <v>100</v>
+      </c>
+      <c r="L316">
+        <v>100</v>
+      </c>
+      <c r="M316">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>522</v>
+      </c>
+      <c r="B317" t="s">
+        <v>519</v>
+      </c>
+      <c r="C317" t="s">
+        <v>234</v>
+      </c>
+      <c r="D317" t="s">
+        <v>62</v>
+      </c>
+      <c r="E317">
+        <v>24</v>
+      </c>
+      <c r="F317" t="s">
+        <v>523</v>
+      </c>
+      <c r="G317">
+        <v>71</v>
+      </c>
+      <c r="H317">
+        <v>71</v>
+      </c>
+      <c r="I317">
+        <v>71</v>
+      </c>
+      <c r="J317">
+        <v>71</v>
+      </c>
+      <c r="K317">
+        <v>71</v>
+      </c>
+      <c r="L317">
+        <v>71</v>
+      </c>
+      <c r="M317">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>524</v>
+      </c>
+      <c r="B318" t="s">
+        <v>519</v>
+      </c>
+      <c r="C318" t="s">
+        <v>234</v>
+      </c>
+      <c r="D318" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318">
+        <v>28</v>
+      </c>
+      <c r="F318" t="s">
+        <v>525</v>
+      </c>
+      <c r="G318">
+        <v>83</v>
+      </c>
+      <c r="H318">
+        <v>83</v>
+      </c>
+      <c r="I318">
+        <v>83</v>
+      </c>
+      <c r="J318">
+        <v>83</v>
+      </c>
+      <c r="K318">
+        <v>83</v>
+      </c>
+      <c r="L318">
+        <v>83</v>
+      </c>
+      <c r="M318">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>526</v>
+      </c>
+      <c r="B319" t="s">
+        <v>519</v>
+      </c>
+      <c r="C319" t="s">
+        <v>234</v>
+      </c>
+      <c r="D319" t="s">
+        <v>108</v>
+      </c>
+      <c r="E319">
+        <v>24</v>
+      </c>
+      <c r="F319" t="s">
+        <v>185</v>
+      </c>
+      <c r="G319">
+        <v>71</v>
+      </c>
+      <c r="H319">
+        <v>71</v>
+      </c>
+      <c r="I319">
+        <v>71</v>
+      </c>
+      <c r="J319">
+        <v>71</v>
+      </c>
+      <c r="K319">
+        <v>71</v>
+      </c>
+      <c r="L319">
+        <v>71</v>
+      </c>
+      <c r="M319">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>527</v>
+      </c>
+      <c r="B320" t="s">
+        <v>519</v>
+      </c>
+      <c r="C320" t="s">
+        <v>234</v>
+      </c>
+      <c r="D320" t="s">
+        <v>74</v>
+      </c>
+      <c r="E320">
+        <v>24</v>
+      </c>
+      <c r="F320" t="s">
+        <v>189</v>
+      </c>
+      <c r="G320">
+        <v>71</v>
+      </c>
+      <c r="H320">
+        <v>71</v>
+      </c>
+      <c r="I320">
+        <v>71</v>
+      </c>
+      <c r="J320">
+        <v>71</v>
+      </c>
+      <c r="K320">
+        <v>71</v>
+      </c>
+      <c r="L320">
+        <v>71</v>
+      </c>
+      <c r="M320">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>528</v>
+      </c>
+      <c r="B321" t="s">
+        <v>519</v>
+      </c>
+      <c r="C321" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" t="s">
+        <v>78</v>
+      </c>
+      <c r="E321">
+        <v>29</v>
+      </c>
+      <c r="F321" t="s">
+        <v>374</v>
+      </c>
+      <c r="G321">
+        <v>106</v>
+      </c>
+      <c r="H321">
+        <v>106</v>
+      </c>
+      <c r="I321">
+        <v>106</v>
+      </c>
+      <c r="J321">
+        <v>106</v>
+      </c>
+      <c r="K321">
+        <v>106</v>
+      </c>
+      <c r="L321">
+        <v>106</v>
+      </c>
+      <c r="M321">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>529</v>
+      </c>
+      <c r="B322" t="s">
+        <v>519</v>
+      </c>
+      <c r="C322" t="s">
+        <v>21</v>
+      </c>
+      <c r="D322" t="s">
+        <v>78</v>
+      </c>
+      <c r="E322">
+        <v>26</v>
+      </c>
+      <c r="F322" t="s">
+        <v>530</v>
+      </c>
+      <c r="G322">
+        <v>111</v>
+      </c>
+      <c r="H322">
+        <v>111</v>
+      </c>
+      <c r="I322">
+        <v>11</v>
+      </c>
+      <c r="J322">
+        <v>71</v>
+      </c>
+      <c r="K322">
+        <v>71</v>
+      </c>
+      <c r="L322">
+        <v>71</v>
+      </c>
+      <c r="M322">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>531</v>
+      </c>
+      <c r="B323" t="s">
+        <v>519</v>
+      </c>
+      <c r="C323" t="s">
+        <v>21</v>
+      </c>
+      <c r="D323" t="s">
+        <v>14</v>
+      </c>
+      <c r="E323">
+        <v>18</v>
+      </c>
+      <c r="F323" t="s">
+        <v>532</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>1</v>
+      </c>
+      <c r="K323">
+        <v>1</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+      <c r="M323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>533</v>
+      </c>
+      <c r="B324" t="s">
+        <v>519</v>
+      </c>
+      <c r="C324" t="s">
+        <v>21</v>
+      </c>
+      <c r="D324" t="s">
+        <v>74</v>
+      </c>
+      <c r="E324">
+        <v>27</v>
+      </c>
+      <c r="F324" t="s">
+        <v>534</v>
+      </c>
+      <c r="G324">
+        <v>111</v>
+      </c>
+      <c r="H324">
+        <v>111</v>
+      </c>
+      <c r="I324">
+        <v>111</v>
+      </c>
+      <c r="J324">
+        <v>71</v>
+      </c>
+      <c r="K324">
+        <v>71</v>
+      </c>
+      <c r="L324">
+        <v>71</v>
+      </c>
+      <c r="M324">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>535</v>
+      </c>
+      <c r="B325" t="s">
+        <v>519</v>
+      </c>
+      <c r="C325" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" t="s">
+        <v>74</v>
+      </c>
+      <c r="E325">
+        <v>26</v>
+      </c>
+      <c r="F325" t="s">
+        <v>536</v>
+      </c>
+      <c r="G325">
+        <v>70</v>
+      </c>
+      <c r="H325">
+        <v>70</v>
+      </c>
+      <c r="I325">
+        <v>70</v>
+      </c>
+      <c r="J325">
+        <v>70</v>
+      </c>
+      <c r="K325">
+        <v>70</v>
+      </c>
+      <c r="L325">
+        <v>70</v>
+      </c>
+      <c r="M325">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>537</v>
+      </c>
+      <c r="B326" t="s">
+        <v>519</v>
+      </c>
+      <c r="C326" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326" t="s">
+        <v>74</v>
+      </c>
+      <c r="E326">
+        <v>26</v>
+      </c>
+      <c r="F326" t="s">
+        <v>538</v>
+      </c>
+      <c r="G326">
+        <v>90</v>
+      </c>
+      <c r="H326">
+        <v>90</v>
+      </c>
+      <c r="I326">
+        <v>90</v>
+      </c>
+      <c r="J326">
+        <v>90</v>
+      </c>
+      <c r="K326">
+        <v>90</v>
+      </c>
+      <c r="L326">
+        <v>90</v>
+      </c>
+      <c r="M326">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>539</v>
+      </c>
+      <c r="B327" t="s">
+        <v>519</v>
+      </c>
+      <c r="D327" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>540</v>
+      </c>
+      <c r="B328" t="s">
+        <v>519</v>
+      </c>
+      <c r="C328" t="s">
+        <v>31</v>
+      </c>
+      <c r="D328" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>541</v>
+      </c>
+      <c r="B329" t="s">
+        <v>519</v>
+      </c>
+      <c r="D329" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329">
+        <v>15</v>
+      </c>
+      <c r="F329" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>543</v>
+      </c>
+      <c r="B330" t="s">
+        <v>519</v>
+      </c>
+      <c r="C330" t="s">
+        <v>238</v>
+      </c>
+      <c r="D330" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330">
+        <v>20</v>
+      </c>
+      <c r="F330" t="s">
+        <v>544</v>
+      </c>
+      <c r="G330">
+        <v>100</v>
+      </c>
+      <c r="H330">
+        <v>100</v>
+      </c>
+      <c r="I330">
+        <v>100</v>
+      </c>
+      <c r="J330">
+        <v>60</v>
+      </c>
+      <c r="K330">
+        <v>60</v>
+      </c>
+      <c r="L330">
+        <v>60</v>
+      </c>
+      <c r="M330">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>545</v>
+      </c>
+      <c r="B331" t="s">
+        <v>519</v>
+      </c>
+      <c r="C331" t="s">
+        <v>40</v>
+      </c>
+      <c r="D331" t="s">
+        <v>14</v>
+      </c>
+      <c r="E331">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>546</v>
+      </c>
+      <c r="B332" t="s">
+        <v>519</v>
+      </c>
+      <c r="C332" t="s">
+        <v>96</v>
+      </c>
+      <c r="D332" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332">
+        <v>22</v>
+      </c>
+      <c r="F332" t="s">
+        <v>547</v>
+      </c>
+      <c r="G332">
+        <v>104</v>
+      </c>
+      <c r="H332">
+        <v>104</v>
+      </c>
+      <c r="I332">
+        <v>104</v>
+      </c>
+      <c r="J332">
+        <v>104</v>
+      </c>
+      <c r="K332">
+        <v>104</v>
+      </c>
+      <c r="L332">
+        <v>104</v>
+      </c>
+      <c r="M332">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>548</v>
+      </c>
+      <c r="B333" t="s">
+        <v>519</v>
+      </c>
+      <c r="D333" t="s">
+        <v>14</v>
+      </c>
+      <c r="E333">
+        <v>28</v>
+      </c>
+      <c r="F333" t="s">
+        <v>549</v>
+      </c>
+      <c r="G333">
+        <v>83</v>
+      </c>
+      <c r="H333">
+        <v>83</v>
+      </c>
+      <c r="I333">
+        <v>83</v>
+      </c>
+      <c r="J333">
+        <v>83</v>
+      </c>
+      <c r="K333">
+        <v>83</v>
+      </c>
+      <c r="L333">
+        <v>83</v>
+      </c>
+      <c r="M333">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>550</v>
+      </c>
+      <c r="B334" t="s">
+        <v>519</v>
+      </c>
+      <c r="C334" t="s">
+        <v>551</v>
+      </c>
+      <c r="D334" t="s">
+        <v>62</v>
+      </c>
+      <c r="E334">
+        <v>24</v>
+      </c>
+      <c r="G334">
+        <v>72</v>
+      </c>
+      <c r="H334">
+        <v>72</v>
+      </c>
+      <c r="I334">
+        <v>72</v>
+      </c>
+      <c r="J334">
+        <v>72</v>
+      </c>
+      <c r="K334">
+        <v>72</v>
+      </c>
+      <c r="L334">
+        <v>72</v>
+      </c>
+      <c r="M334">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>552</v>
+      </c>
+      <c r="B335" t="s">
+        <v>519</v>
+      </c>
+      <c r="C335" t="s">
+        <v>551</v>
+      </c>
+      <c r="D335" t="s">
+        <v>55</v>
+      </c>
+      <c r="E335">
+        <v>24</v>
+      </c>
+      <c r="F335" t="s">
+        <v>553</v>
+      </c>
+      <c r="G335">
+        <v>82</v>
+      </c>
+      <c r="H335">
+        <v>82</v>
+      </c>
+      <c r="I335">
+        <v>82</v>
+      </c>
+      <c r="J335">
+        <v>82</v>
+      </c>
+      <c r="K335">
+        <v>82</v>
+      </c>
+      <c r="L335">
+        <v>82</v>
+      </c>
+      <c r="M335">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>554</v>
+      </c>
+      <c r="B336" t="s">
+        <v>519</v>
+      </c>
+      <c r="C336" t="s">
+        <v>551</v>
+      </c>
+      <c r="D336" t="s">
+        <v>108</v>
+      </c>
+      <c r="E336">
+        <v>24</v>
+      </c>
+      <c r="F336" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>556</v>
+      </c>
+      <c r="B337" t="s">
+        <v>519</v>
+      </c>
+      <c r="C337" t="s">
+        <v>551</v>
+      </c>
+      <c r="D337" t="s">
+        <v>55</v>
+      </c>
+      <c r="E337">
+        <v>24</v>
+      </c>
+      <c r="F337" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
